--- a/5sem/etl/jupyterlab/lookup-file.xlsx
+++ b/5sem/etl/jupyterlab/lookup-file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,8 +473,9 @@
           <t>id-004</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>15.99</v>
+      <c r="G2">
+        <f>LOOKUP(F2, A1:A7,C1:C7)</f>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -507,10 +508,6 @@
       </c>
       <c r="D4" t="n">
         <v>45</v>
-      </c>
-      <c r="G4">
-        <f>LOOKUP(F2, A1:A7,C1:C7)</f>
-        <v/>
       </c>
     </row>
     <row r="5">
